--- a/Doc/Presupuesto.xlsx
+++ b/Doc/Presupuesto.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Proveedores" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Precios" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,29 +22,164 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="99">
+  <si>
+    <t xml:space="preserve">PVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descripcion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio Unitario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuberia y conexiones ALEVYR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central de pvc S.A de C.V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amanco 5556087431</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomba de agua exterior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubo 2’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">208 tubos para crecimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 tubos Para germinacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tubo 1 1/2’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ptr ½ cal 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soporte horizontal 30 tramos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soportes verticales 20 tramos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inmueble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inmueble renta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 meses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inmueble deposito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automatizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor de nivel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor de temperatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor ph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor ec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino Shield for Raspberry Pi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relay AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bomba agua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dispensador de agua mll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raspberry pi 3 model b+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isolate analog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">txPRO Gabinete de Plástico para Exteriores, 30 x 30cm, Gris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">micro sd 8gb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insumos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foami agricola 3500 cubos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solucion nutritiva Peters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semillas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3000 semillas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peters </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invertido</t>
+  </si>
   <si>
     <t xml:space="preserve">Materiales</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripcion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio Unitario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sisterna Rotoplas</t>
   </si>
   <si>
@@ -53,124 +189,94 @@
     <t xml:space="preserve">Instalacion tanque</t>
   </si>
   <si>
-    <t xml:space="preserve">Bomba de agua exterior</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubo 2’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208 tubos para crecimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70 tubos Para germinacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tubo 1 1/2’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ptr ½ cal 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soporte horizontal 30 tramos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soportes verticales 20 tramos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inmueble</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inmueble renta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 meses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inmueble deposito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Automatizacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor de nivel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor de temperatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor ph</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensor ec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arduino Shield for Raspberry Pi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relay AC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bomba agua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dispensador de agua mll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raspberry pi 3 model b+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isolate analog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">txPRO Gabinete de Plástico para Exteriores, 30 x 30cm, Gris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">micro sd 8gb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insumos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foami agricola 3500 cubos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1’</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solucion nutritiva Peters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 kg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semillas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3000 semillas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peters </t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Banco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Invertido</t>
+    <t xml:space="preserve">Tubo 3’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 tubos para crecimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charola germinacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argollas de acero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¼ x 2’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plastico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinta parches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTR estructural</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4x4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tramos de 12m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pistola calor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herramienta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alambre inoxidable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aislador termico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantener temp en tanque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base esmeriladora con prensa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disco multicorte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broca recubrimiento titanio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mano de obra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6242 g/lt  Peter's (6240 para 10,000L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulfato de magnesio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1387 g/lt Magnesio  (1387 para 10,000L)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitrato de calcio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3468 g/lt  Calcio  (3468 para 10,000L)</t>
   </si>
   <si>
     <t xml:space="preserve">Entrada nivel</t>
@@ -228,7 +334,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -250,10 +355,9 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +380,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF3399FF"/>
         <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -313,7 +423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -340,6 +450,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -422,16 +540,16 @@
   <dimension ref="D3:L64"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
@@ -472,15 +590,18 @@
       <c r="E5" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="F5" s="0" t="n">
+        <v>5588438586</v>
+      </c>
       <c r="G5" s="0" t="n">
-        <v>14000</v>
+        <v>144</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I5" s="0" t="n">
         <f aca="false">G5*H5</f>
-        <v>14000</v>
+        <v>11520</v>
       </c>
       <c r="L5" s="3"/>
     </row>
@@ -488,21 +609,27 @@
       <c r="D6" s="0" t="s">
         <v>9</v>
       </c>
+      <c r="E6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
       <c r="G6" s="0" t="n">
-        <v>5000</v>
+        <v>137.4368</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="I6" s="0" t="n">
         <f aca="false">G6*H6</f>
-        <v>5000</v>
+        <v>10994.944</v>
       </c>
       <c r="L6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>700</v>
@@ -517,13 +644,13 @@
     </row>
     <row r="8" customFormat="false" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>115</v>
@@ -538,13 +665,13 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>100</v>
@@ -559,10 +686,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>100</v>
@@ -577,13 +704,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D11" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>260</v>
@@ -598,13 +725,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>260</v>
@@ -620,12 +747,12 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I14" s="0" t="n">
         <f aca="false">SUM(I5:I13)</f>
-        <v>38160</v>
+        <v>41674.944</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -653,10 +780,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>4500</v>
@@ -671,7 +798,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>4500</v>
@@ -686,7 +813,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D20" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>100</v>
@@ -701,10 +828,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>300</v>
@@ -725,7 +852,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -753,7 +880,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>225</v>
@@ -768,7 +895,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D30" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>157</v>
@@ -783,7 +910,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D31" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>1282</v>
@@ -798,7 +925,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D32" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>1573</v>
@@ -813,7 +940,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>450</v>
@@ -828,7 +955,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D34" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>60</v>
@@ -843,7 +970,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D35" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>210</v>
@@ -858,7 +985,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D36" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>1350</v>
@@ -873,7 +1000,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D37" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>880</v>
@@ -888,7 +1015,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D38" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>450</v>
@@ -909,7 +1036,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>669</v>
@@ -924,7 +1051,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D41" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G41" s="0" t="n">
         <v>200</v>
@@ -945,7 +1072,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -973,10 +1100,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D46" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>1000</v>
@@ -991,10 +1118,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D47" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>200</v>
@@ -1009,10 +1136,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D48" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>200</v>
@@ -1027,10 +1154,10 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D49" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1052,12 +1179,12 @@
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I55" s="0" t="n">
         <f aca="false">SUM(I50,I42,I23,I14)</f>
-        <v>57246</v>
+        <v>60760.944</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D58" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -1067,7 +1194,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H59" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>45000</v>
@@ -1075,7 +1202,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H60" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>5000</v>
@@ -1083,7 +1210,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H61" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>2000</v>
@@ -1091,7 +1218,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H62" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>7366</v>
@@ -1117,7 +1244,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
@@ -1130,34 +1257,931 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="D3:L76"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.0612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3724489795918"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>11399</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">G5*H5</f>
+        <v>11399</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">G7*H7</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="32.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>137.4368</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">G8*H8</f>
+        <v>10994.944</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <f aca="false">G9*H9</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <f aca="false">G10*H10</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>2100</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">G11*H11</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <f aca="false">G12*H12</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>3600</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <f aca="false">G13*H13</f>
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>850</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <f aca="false">G14*H14</f>
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1200</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">G16*H16</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>170</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">G17*H17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>520</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">G18*H18</f>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>260</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">G19*H19</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">G20*H20</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="0" t="n">
+        <f aca="false">G21*H21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I22" s="0" t="n">
+        <f aca="false">G22*H22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I23" s="0" t="n">
+        <f aca="false">G23*H23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I24" s="0" t="n">
+        <f aca="false">SUM(I5:I23)</f>
+        <v>40923.944</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">G28*H28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">G29*H29</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">G30*H30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <f aca="false">G31*H31</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I33" s="0" t="n">
+        <f aca="false">SUM(I28:I31)</f>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>225</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">G39*H39</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>157</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <f aca="false">G40*H40</f>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D41" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>1282</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">G41*H41</f>
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>1573</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <f aca="false">G42*H42</f>
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D43" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <f aca="false">G43*H43</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <f aca="false">G44*H44</f>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D45" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>210</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <f aca="false">G45*H45</f>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D46" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1350</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <f aca="false">G46*H46</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D47" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>880</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <f aca="false">G47*H47</f>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D48" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>450</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <f aca="false">G48*H48</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I49" s="0" t="n">
+        <f aca="false">G49*H49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>669</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <f aca="false">G50*H50</f>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D51" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <f aca="false">G51*H51</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I52" s="0" t="n">
+        <f aca="false">SUM(I39:I51)</f>
+        <v>8286</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G56" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <f aca="false">G56*H56</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <f aca="false">G57*H57</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D58" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <f aca="false">G58*H58</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D59" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <f aca="false">G59*H59</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D60" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <f aca="false">G60*H60</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I62" s="0" t="n">
+        <f aca="false">SUM(I56:I60)</f>
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D66" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I67" s="0" t="n">
+        <f aca="false">SUM(I62,I33,I24)</f>
+        <v>51687.944</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H71" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H72" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H74" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>8286</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I76" s="0" t="n">
+        <f aca="false">SUM(I71:I75)</f>
+        <v>60286</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D54:I54"/>
+    <mergeCell ref="D66:I66"/>
+    <mergeCell ref="D70:I70"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D50" r:id="rId1" display="txPRO Gabinete de Plástico para Exteriores, 30 x 30cm, Gris"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B5:E33"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.7857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1176,50 +2200,50 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D24" s="0" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
